--- a/book4.xlsx
+++ b/book4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuelgutierrez/Desktop/data_integ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EDCBFA5-A8ED-0C4C-BD8B-5EED2694612C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3463C45-76D4-E14C-96B1-6356203D3E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1340" yWindow="600" windowWidth="28040" windowHeight="17440" xr2:uid="{255C9B67-9485-5A44-B5AE-DC6C6A499E06}"/>
   </bookViews>
@@ -1019,9 +1019,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF86115-ABC2-A64E-A377-09D6C27F983A}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="181" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1362,13 +1367,16 @@
       <c r="J8">
         <v>89</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
         <v>65</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>61</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>1</v>
       </c>
     </row>
@@ -1488,13 +1496,16 @@
       <c r="J11">
         <v>87</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11">
+        <v>76</v>
+      </c>
+      <c r="L11" t="s">
         <v>84</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>85</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>1</v>
       </c>
     </row>
@@ -1969,13 +1980,16 @@
       <c r="J22">
         <v>82</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22">
+        <v>46</v>
+      </c>
+      <c r="L22" t="s">
         <v>157</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>158</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>1</v>
       </c>
     </row>
@@ -2095,13 +2109,16 @@
       <c r="J25">
         <v>80</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25">
+        <v>90</v>
+      </c>
+      <c r="L25" t="s">
         <v>180</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>181</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>1</v>
       </c>
     </row>
@@ -2136,13 +2153,16 @@
       <c r="J26">
         <v>78</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26">
+        <v>53</v>
+      </c>
+      <c r="L26" t="s">
         <v>185</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>186</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>1</v>
       </c>
     </row>
